--- a/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3440E51B-2AD1-44D6-B71F-9EECC6AF1161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F799B98-1689-4924-A121-FFC1CB0B2D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>type</t>
   </si>
@@ -81,49 +81,19 @@
     <t>choice_filter</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>rCSILessQlty</t>
-  </si>
-  <si>
-    <t>.&gt;=0 and .&lt;=7</t>
-  </si>
-  <si>
-    <t>rCSIBorrow</t>
-  </si>
-  <si>
-    <t>rCSIMealSize</t>
-  </si>
-  <si>
-    <t>rCSIMealAdult</t>
-  </si>
-  <si>
-    <t>rCSIMealNb</t>
   </si>
   <si>
     <t>constraint_message::Francais</t>
   </si>
   <si>
-    <t>La réponse doit être comprise entre 0 et 7</t>
-  </si>
-  <si>
     <t>hint::Francais</t>
-  </si>
-  <si>
-    <t>Note pour les interviewers (ne pas lire à voix haute): Le ménage change les types d’aliments consommés afin de faire face au manque d’aliments.* Cette question couvre les différents types d’aliments consommés plutôt que les quantités consommées.</t>
   </si>
   <si>
     <t>default_language</t>
@@ -138,172 +108,92 @@
     <t>English</t>
   </si>
   <si>
-    <t>noterCSI</t>
+    <t>standardized_miscquestionnaire</t>
   </si>
   <si>
-    <t>Note pour les interviewers (ne pas lire à voix haute):  Le ménages augmente la disponibilité des aliments à court terme en s’appuyant sur l’aide d’amis ou de parents sous forme d’aliments ou d’argent pour acheter des aliments.</t>
+    <t>date</t>
   </si>
   <si>
-    <t>Note pour les interviewers (ne pas lire à voix haute):   Une stratégie de rationnement dans laquelle la plupart des membres du ménage consomment moins de repas dans la journée pour gérer le manque de nourriture.</t>
+    <t>SvyDatePDM</t>
   </si>
   <si>
-    <t>Note pour les interviewers (ne pas lire à voix haute):   Une stratégie de rationnement dans laquelle la quantité de nourriture consommée aux repas est réduite afin de gérer le manque de nourriture</t>
+    <t>Date de l'enquête</t>
   </si>
   <si>
-    <t>Note for interviewers (not to read aloud): Une stratégie de rationnement dans laquelle la consommation des adultes est limitée de manière à ce que les petits enfants aient suffisamment à manger.  Dans les ménages sans enfants, la réponse devrait être zéro.</t>
+    <t>select_one EnuList</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Consommer des aliments moins préférés et moins chers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
-    </r>
+    <t>EnuNamePDM</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Emprunter de la nourriture ou compter sur l’aide des parents/amis
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
-    </r>
+    <t>SupervisorNamePDM</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diminuer la quantité consommée pendant les repas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
-    </r>
+    <t>select_one SupList</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Restreindre la consommation des adultes  pour nourrir les enfants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
-    </r>
+    <t xml:space="preserve">Nom de l'enquêteur  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diminuer le nombre de repas par jour</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
-    </r>
+    <t>Nom du superviseur</t>
   </si>
   <si>
-    <t>standardized_rCSIquestionnaire</t>
+    <t>.&lt;=today()</t>
   </si>
   <si>
-    <t xml:space="preserve"> l’indice réduit des stratégies de survie (rCSI)</t>
+    <t>EnuPartner</t>
+  </si>
+  <si>
+    <t>EnuSex</t>
+  </si>
+  <si>
+    <t>select_one Sex</t>
+  </si>
+  <si>
+    <t>select_one CPList</t>
+  </si>
+  <si>
+    <t>Sexe de l'enquêteur</t>
+  </si>
+  <si>
+    <t>Organisation de l'enquêteur</t>
+  </si>
+  <si>
+    <t>select_one Yesno</t>
+  </si>
+  <si>
+    <t>RESPConsent</t>
+  </si>
+  <si>
+    <t>La personne interrogée accepte-t-elle de procéder à l'entretien dans le cadre du consentement éclairé ?</t>
+  </si>
+  <si>
+    <t>RESPAge</t>
+  </si>
+  <si>
+    <t>RESPSex</t>
+  </si>
+  <si>
+    <t>select_one RelationHHH</t>
+  </si>
+  <si>
+    <t>RESPRelationHHH</t>
+  </si>
+  <si>
+    <t>Âge du répondant</t>
+  </si>
+  <si>
+    <t>Sexe du répondant</t>
+  </si>
+  <si>
+    <t>Quelle est la relation de la répondante avec le chef de meange ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +383,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -640,7 +536,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,13 +631,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -762,12 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -778,9 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -813,12 +696,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -842,6 +719,43 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1237,19 +1151,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N269"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" style="78" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="3.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
@@ -1266,17 +1180,17 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>5</v>
@@ -1304,1081 +1218,1064 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="70"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="77" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="G5" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="G6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="G7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="G8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="33"/>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="48"/>
-      <c r="J11" s="47"/>
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="49"/>
-      <c r="J12" s="53"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="48"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="74"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="49"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="75"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="50"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="74"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="50"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="75"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="50"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="76"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="50"/>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="76"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="50"/>
-      <c r="E19" s="55"/>
-      <c r="J19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="76"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="50"/>
-      <c r="E20" s="34"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="76"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="54"/>
-      <c r="E21" s="34"/>
-      <c r="J21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="76"/>
+      <c r="E21" s="50"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="50"/>
-      <c r="E22" s="55"/>
-      <c r="J22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="76"/>
+      <c r="E22" s="34"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="77"/>
       <c r="E23" s="34"/>
-      <c r="J23" s="37"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="50"/>
-      <c r="E24" s="34"/>
-      <c r="J24" s="37"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="76"/>
+      <c r="E24" s="50"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="50"/>
-      <c r="E25" s="55"/>
-      <c r="J25" s="35"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="76"/>
+      <c r="E25" s="34"/>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="50"/>
+      <c r="C26" s="76"/>
       <c r="E26" s="34"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="50"/>
-      <c r="E27" s="34"/>
-      <c r="J27" s="37"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="76"/>
+      <c r="E27" s="50"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="50"/>
-      <c r="E28" s="55"/>
-      <c r="J28" s="35"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="76"/>
+      <c r="E28" s="34"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="50"/>
-      <c r="E29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="C29" s="76"/>
+      <c r="E29" s="34"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="50"/>
-      <c r="E30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="76"/>
+      <c r="E30" s="50"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="50"/>
-      <c r="J31" s="53"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="76"/>
+      <c r="E31" s="36"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="50"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="76"/>
+      <c r="E32" s="53"/>
       <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="50"/>
-      <c r="E33" s="58"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="76"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="50"/>
-      <c r="E34" s="47"/>
-      <c r="J34" s="53"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="76"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="50"/>
-      <c r="E35" s="47"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="76"/>
+      <c r="E35" s="53"/>
       <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="50"/>
-      <c r="E36" s="58"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="76"/>
+      <c r="E36" s="45"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="50"/>
-      <c r="E37" s="47"/>
-      <c r="J37" s="53"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="76"/>
+      <c r="E37" s="45"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="50"/>
-      <c r="E38" s="47"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="76"/>
+      <c r="E38" s="53"/>
       <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="50"/>
-      <c r="E39" s="58"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="76"/>
+      <c r="E39" s="45"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="50"/>
-      <c r="J40" s="60"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="76"/>
+      <c r="E40" s="45"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="50"/>
-      <c r="J41" s="60"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="76"/>
+      <c r="E41" s="53"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="50"/>
-      <c r="J42" s="47"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="76"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="50"/>
-      <c r="E43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="76"/>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="50"/>
-      <c r="E44" s="64"/>
-      <c r="J44" s="63"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="76"/>
+      <c r="J44" s="45"/>
     </row>
     <row r="45" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="50"/>
-      <c r="E45" s="47"/>
-      <c r="J45" s="59"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="76"/>
+      <c r="E45" s="34"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="76"/>
       <c r="E46" s="59"/>
-      <c r="J46" s="59"/>
+      <c r="J46" s="58"/>
     </row>
     <row r="47" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="50"/>
-      <c r="E47" s="59"/>
-      <c r="J47" s="59"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="76"/>
+      <c r="E47" s="45"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="50"/>
-      <c r="E48" s="47"/>
-      <c r="J48" s="59"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="76"/>
+      <c r="E48" s="54"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="61"/>
-      <c r="C49" s="50"/>
-      <c r="E49" s="59"/>
-      <c r="J49" s="59"/>
+      <c r="C49" s="76"/>
+      <c r="E49" s="54"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="50"/>
-      <c r="E50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="76"/>
+      <c r="E50" s="45"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="50"/>
-      <c r="E51" s="34"/>
-      <c r="J51" s="34"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="76"/>
+      <c r="E51" s="54"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="50"/>
-      <c r="E52" s="34"/>
-      <c r="J52" s="62"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="76"/>
+      <c r="E52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="76"/>
       <c r="E53" s="34"/>
-      <c r="J53" s="62"/>
+      <c r="J53" s="34"/>
     </row>
     <row r="54" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="50"/>
-      <c r="E54" s="47"/>
-      <c r="J54" s="40"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="76"/>
+      <c r="E54" s="34"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
-      <c r="E55" s="47"/>
-      <c r="J55" s="40"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="76"/>
+      <c r="E55" s="34"/>
+      <c r="J55" s="57"/>
     </row>
     <row r="56" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
-      <c r="E56" s="47"/>
-      <c r="J56" s="40"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="76"/>
+      <c r="E56" s="45"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="50"/>
-      <c r="E57" s="34"/>
-      <c r="J57" s="34"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="76"/>
+      <c r="E57" s="45"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="50"/>
-      <c r="E58" s="34"/>
-      <c r="J58" s="62"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="76"/>
+      <c r="E58" s="45"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="76"/>
       <c r="E59" s="34"/>
-      <c r="J59" s="62"/>
+      <c r="J59" s="34"/>
     </row>
     <row r="60" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="76"/>
       <c r="E60" s="34"/>
-      <c r="J60" s="62"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="50"/>
-      <c r="J61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="76"/>
+      <c r="E61" s="34"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="50"/>
-      <c r="J62" s="62"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="76"/>
+      <c r="E62" s="34"/>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="50"/>
-      <c r="E63" s="34"/>
-      <c r="J63" s="47"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="76"/>
+      <c r="J63" s="57"/>
     </row>
     <row r="64" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="50"/>
-      <c r="J64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="76"/>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="50"/>
-      <c r="J65" s="62"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="76"/>
+      <c r="E65" s="34"/>
+      <c r="J65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="50"/>
-      <c r="J66" s="47"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="76"/>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="50"/>
-      <c r="J67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="76"/>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="50"/>
-      <c r="J68" s="47"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="76"/>
+      <c r="J68" s="45"/>
     </row>
     <row r="69" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="50"/>
-      <c r="J69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="76"/>
+      <c r="J69" s="45"/>
     </row>
     <row r="70" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="50"/>
-      <c r="J70" s="47"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="76"/>
+      <c r="J70" s="45"/>
     </row>
     <row r="71" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="20"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="76"/>
+      <c r="J71" s="45"/>
     </row>
     <row r="72" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
-      <c r="B72" s="35"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="76"/>
+      <c r="J72" s="45"/>
     </row>
     <row r="73" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="73"/>
     </row>
     <row r="74" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
-      <c r="C74" s="38"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="35"/>
     </row>
     <row r="75" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="38"/>
     </row>
     <row r="76" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
-      <c r="C76" s="38"/>
+      <c r="C76" s="79"/>
     </row>
     <row r="77" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="34"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="38"/>
+      <c r="C77" s="79"/>
     </row>
     <row r="78" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
-      <c r="C78" s="38"/>
+      <c r="C78" s="79"/>
     </row>
     <row r="79" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="18"/>
-      <c r="C79" s="38"/>
+      <c r="C79" s="79"/>
     </row>
     <row r="80" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
-      <c r="C80" s="38"/>
-    </row>
-    <row r="81" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="79"/>
+    </row>
+    <row r="81" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="18"/>
-      <c r="C81" s="38"/>
-    </row>
-    <row r="82" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="79"/>
+    </row>
+    <row r="82" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="18"/>
-      <c r="C82" s="68"/>
-    </row>
-    <row r="83" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="79"/>
+    </row>
+    <row r="83" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="18"/>
-      <c r="C83" s="69"/>
-    </row>
-    <row r="84" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="79"/>
+    </row>
+    <row r="84" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="18"/>
-      <c r="C84" s="38"/>
+      <c r="C84" s="80"/>
     </row>
     <row r="85" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
-      <c r="C85" s="38"/>
+      <c r="C85" s="81"/>
     </row>
     <row r="86" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
-      <c r="C86" s="38"/>
+      <c r="C86" s="79"/>
     </row>
     <row r="87" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
-      <c r="C87" s="38"/>
+      <c r="C87" s="79"/>
     </row>
     <row r="88" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="18"/>
-      <c r="C88" s="38"/>
+      <c r="C88" s="79"/>
     </row>
     <row r="89" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="18"/>
-      <c r="C89" s="38"/>
+      <c r="C89" s="79"/>
     </row>
     <row r="90" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="18"/>
-      <c r="C90" s="38"/>
+      <c r="C90" s="79"/>
     </row>
     <row r="91" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="18"/>
-      <c r="C91" s="38"/>
+      <c r="C91" s="79"/>
     </row>
     <row r="92" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="18"/>
-      <c r="C92" s="38"/>
+      <c r="C92" s="79"/>
     </row>
     <row r="93" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="18"/>
-      <c r="C93" s="38"/>
+      <c r="C93" s="79"/>
     </row>
     <row r="94" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="18"/>
-      <c r="C94" s="38"/>
+      <c r="C94" s="79"/>
     </row>
     <row r="95" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="18"/>
-      <c r="C95" s="38"/>
+      <c r="C95" s="79"/>
     </row>
     <row r="96" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="18"/>
-      <c r="C96" s="38"/>
+      <c r="C96" s="79"/>
     </row>
     <row r="97" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="18"/>
-      <c r="C97" s="38"/>
+      <c r="C97" s="79"/>
     </row>
     <row r="98" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="18"/>
-      <c r="C98" s="38"/>
+      <c r="C98" s="79"/>
     </row>
     <row r="99" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="18"/>
-      <c r="C99" s="38"/>
+      <c r="C99" s="79"/>
     </row>
     <row r="100" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="18"/>
-      <c r="C100" s="38"/>
+      <c r="C100" s="79"/>
     </row>
     <row r="101" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="18"/>
-      <c r="C101" s="38"/>
+      <c r="C101" s="79"/>
     </row>
     <row r="102" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="18"/>
-      <c r="C102" s="38"/>
+      <c r="C102" s="79"/>
     </row>
     <row r="103" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="18"/>
-      <c r="C103" s="38"/>
+      <c r="C103" s="79"/>
     </row>
     <row r="104" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="18"/>
-      <c r="C104" s="38"/>
+      <c r="C104" s="79"/>
     </row>
     <row r="105" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
-      <c r="C105" s="38"/>
+      <c r="C105" s="79"/>
     </row>
     <row r="106" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="18"/>
-      <c r="C106" s="38"/>
+      <c r="C106" s="79"/>
     </row>
     <row r="107" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="18"/>
-      <c r="C107" s="38"/>
+      <c r="C107" s="79"/>
     </row>
     <row r="108" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="18"/>
-      <c r="C108" s="38"/>
+      <c r="C108" s="79"/>
     </row>
     <row r="109" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="18"/>
-      <c r="C109" s="38"/>
+      <c r="C109" s="79"/>
     </row>
     <row r="110" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="18"/>
-      <c r="C110" s="38"/>
+      <c r="C110" s="79"/>
     </row>
     <row r="111" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="18"/>
-      <c r="C111" s="38"/>
+      <c r="C111" s="79"/>
     </row>
     <row r="112" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
-      <c r="C112" s="38"/>
+      <c r="C112" s="79"/>
     </row>
     <row r="113" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
-      <c r="C113" s="38"/>
+      <c r="C113" s="79"/>
     </row>
     <row r="114" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
-      <c r="C114" s="38"/>
+      <c r="C114" s="79"/>
     </row>
     <row r="115" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
+      <c r="C115" s="79"/>
     </row>
     <row r="116" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="34"/>
-      <c r="J116" s="34"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="79"/>
     </row>
     <row r="117" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
-      <c r="J118" s="37"/>
+      <c r="B118" s="34"/>
+      <c r="J118" s="34"/>
     </row>
     <row r="119" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="18"/>
-      <c r="C119" s="38"/>
-    </row>
-    <row r="124" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="J124" s="37"/>
-    </row>
-    <row r="125" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="70"/>
-      <c r="B125" s="39"/>
-      <c r="J125" s="37"/>
+    </row>
+    <row r="120" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="37"/>
+      <c r="J120" s="36"/>
+    </row>
+    <row r="121" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="18"/>
+      <c r="C121" s="79"/>
     </row>
     <row r="126" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
-      <c r="B126" s="56"/>
-      <c r="J126" s="35"/>
+      <c r="B126" s="34"/>
+      <c r="J126" s="36"/>
     </row>
     <row r="127" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
-      <c r="J127" s="37"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="37"/>
+      <c r="J127" s="36"/>
     </row>
     <row r="128" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="70"/>
-      <c r="B128" s="39"/>
-      <c r="J128" s="37"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="51"/>
+      <c r="J128" s="35"/>
     </row>
     <row r="129" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
-      <c r="B129" s="35"/>
-      <c r="J129" s="35"/>
+      <c r="B129" s="34"/>
+      <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
-      <c r="J130" s="37"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="37"/>
+      <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="57"/>
-      <c r="J131" s="58"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="35"/>
+      <c r="J131" s="35"/>
     </row>
     <row r="132" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
-      <c r="J132" s="53"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="J132" s="36"/>
     </row>
     <row r="133" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="52"/>
       <c r="J133" s="53"/>
     </row>
     <row r="134" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="57"/>
-      <c r="J134" s="58"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="J134" s="49"/>
     </row>
     <row r="135" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
-      <c r="J135" s="53"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="18"/>
+      <c r="J135" s="49"/>
     </row>
     <row r="136" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="52"/>
       <c r="J136" s="53"/>
     </row>
     <row r="137" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="57"/>
-      <c r="J137" s="58"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="J137" s="49"/>
     </row>
     <row r="138" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="J138" s="53"/>
+      <c r="A138" s="63"/>
+      <c r="B138" s="45"/>
+      <c r="J138" s="49"/>
     </row>
     <row r="139" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="70"/>
-      <c r="B139" s="18"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="52"/>
       <c r="J139" s="53"/>
     </row>
     <row r="140" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="57"/>
-      <c r="J140" s="58"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="J140" s="49"/>
     </row>
     <row r="141" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
-      <c r="B141" s="59"/>
-      <c r="J141" s="60"/>
+      <c r="A141" s="63"/>
+      <c r="B141" s="18"/>
+      <c r="J141" s="49"/>
     </row>
     <row r="142" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
-      <c r="B142" s="18"/>
-      <c r="J142" s="60"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="52"/>
+      <c r="J142" s="53"/>
     </row>
     <row r="143" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
-      <c r="J143" s="47"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="54"/>
+      <c r="J143" s="55"/>
     </row>
     <row r="144" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
-      <c r="J144" s="47"/>
+      <c r="A144" s="63"/>
+      <c r="B144" s="18"/>
+      <c r="J144" s="55"/>
     </row>
     <row r="145" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="35"/>
-      <c r="J145" s="34"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="J145" s="45"/>
     </row>
     <row r="146" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="62"/>
-      <c r="B146" s="63"/>
-      <c r="J146" s="63"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="J146" s="45"/>
     </row>
     <row r="147" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
-      <c r="B147" s="65"/>
-      <c r="J147" s="59"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="35"/>
+      <c r="J147" s="34"/>
     </row>
     <row r="148" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
-      <c r="B148" s="66"/>
-      <c r="J148" s="59"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="58"/>
+      <c r="J148" s="58"/>
     </row>
     <row r="149" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="70"/>
-      <c r="B149" s="66"/>
-      <c r="J149" s="59"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="60"/>
+      <c r="J149" s="54"/>
     </row>
     <row r="150" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
-      <c r="B150" s="65"/>
-      <c r="J150" s="59"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="61"/>
+      <c r="J150" s="54"/>
     </row>
     <row r="151" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
+      <c r="A151" s="63"/>
       <c r="B151" s="61"/>
-      <c r="J151" s="59"/>
+      <c r="J151" s="54"/>
     </row>
     <row r="152" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
-      <c r="B152" s="61"/>
-      <c r="J152" s="59"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="60"/>
+      <c r="J152" s="54"/>
     </row>
     <row r="153" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="35"/>
-      <c r="J153" s="34"/>
+      <c r="A153" s="45"/>
+      <c r="B153" s="56"/>
+      <c r="J153" s="54"/>
     </row>
     <row r="154" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="J154" s="62"/>
+      <c r="A154" s="63"/>
+      <c r="B154" s="56"/>
+      <c r="J154" s="54"/>
     </row>
     <row r="155" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="70"/>
-      <c r="B155" s="18"/>
-      <c r="J155" s="62"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="35"/>
+      <c r="J155" s="34"/>
     </row>
     <row r="156" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="57"/>
-      <c r="J156" s="40"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="34"/>
+      <c r="J156" s="57"/>
     </row>
     <row r="157" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47"/>
-      <c r="B157" s="47"/>
-      <c r="J157" s="40"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="18"/>
+      <c r="J157" s="57"/>
     </row>
     <row r="158" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="70"/>
-      <c r="B158" s="47"/>
-      <c r="J158" s="40"/>
+      <c r="A158" s="45"/>
+      <c r="B158" s="52"/>
+      <c r="J158" s="38"/>
     </row>
     <row r="159" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
-      <c r="B159" s="35"/>
-      <c r="J159" s="34"/>
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="J159" s="38"/>
     </row>
     <row r="160" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
-      <c r="B160" s="67"/>
-      <c r="J160" s="62"/>
+      <c r="A160" s="63"/>
+      <c r="B160" s="45"/>
+      <c r="J160" s="38"/>
     </row>
     <row r="161" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="70"/>
-      <c r="B161" s="18"/>
-      <c r="J161" s="62"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="35"/>
+      <c r="J161" s="34"/>
     </row>
     <row r="162" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="34"/>
-      <c r="B162" s="56"/>
-      <c r="J162" s="62"/>
+      <c r="B162" s="62"/>
+      <c r="J162" s="57"/>
     </row>
     <row r="163" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="67"/>
-      <c r="J163" s="62"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="18"/>
+      <c r="J163" s="57"/>
     </row>
     <row r="164" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="70"/>
-      <c r="B164" s="18"/>
-      <c r="J164" s="62"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="51"/>
+      <c r="J164" s="57"/>
     </row>
     <row r="165" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="34"/>
-      <c r="B165" s="67"/>
-      <c r="J165" s="62"/>
+      <c r="B165" s="62"/>
+      <c r="J165" s="57"/>
     </row>
     <row r="166" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="67"/>
-      <c r="J166" s="62"/>
+      <c r="A166" s="63"/>
+      <c r="B166" s="18"/>
+      <c r="J166" s="57"/>
     </row>
     <row r="167" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="70"/>
-      <c r="B167" s="18"/>
-      <c r="J167" s="62"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="62"/>
+      <c r="J167" s="57"/>
     </row>
     <row r="168" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71"/>
-      <c r="B168" s="72"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="62"/>
+      <c r="J168" s="57"/>
+    </row>
+    <row r="169" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="63"/>
+      <c r="B169" s="18"/>
+      <c r="J169" s="57"/>
     </row>
     <row r="170" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="18"/>
-    </row>
-    <row r="171" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J171" s="62"/>
+      <c r="A170" s="64"/>
+      <c r="B170" s="65"/>
     </row>
     <row r="172" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J172" s="62"/>
-    </row>
-    <row r="176" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="18"/>
-    </row>
-    <row r="177" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J177" s="62"/>
+      <c r="B172" s="18"/>
+    </row>
+    <row r="173" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J173" s="57"/>
+    </row>
+    <row r="174" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J174" s="57"/>
     </row>
     <row r="178" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J178" s="62"/>
-    </row>
-    <row r="182" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="18"/>
-    </row>
-    <row r="183" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J183" s="62"/>
+      <c r="B178" s="18"/>
+    </row>
+    <row r="179" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J179" s="57"/>
+    </row>
+    <row r="180" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J180" s="57"/>
     </row>
     <row r="184" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J184" s="62"/>
-    </row>
-    <row r="187" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="18"/>
-    </row>
-    <row r="189" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J189" s="62"/>
-    </row>
+      <c r="B184" s="18"/>
+    </row>
+    <row r="185" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J185" s="57"/>
+    </row>
+    <row r="186" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J186" s="57"/>
+    </row>
+    <row r="189" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="62"/>
-    </row>
-    <row r="194" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="18"/>
-    </row>
-    <row r="195" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J195" s="62"/>
+      <c r="B190" s="18"/>
+    </row>
+    <row r="191" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J191" s="57"/>
+    </row>
+    <row r="192" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J192" s="57"/>
     </row>
     <row r="196" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J196" s="62"/>
-    </row>
-    <row r="199" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="18"/>
-    </row>
-    <row r="201" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J201" s="62"/>
-    </row>
+      <c r="B196" s="18"/>
+    </row>
+    <row r="197" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J197" s="57"/>
+    </row>
+    <row r="198" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J198" s="57"/>
+    </row>
+    <row r="201" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J202" s="62"/>
-    </row>
-    <row r="206" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="18"/>
-    </row>
-    <row r="207" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J207" s="62"/>
+      <c r="B202" s="18"/>
+    </row>
+    <row r="203" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J203" s="57"/>
+    </row>
+    <row r="204" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J204" s="57"/>
     </row>
     <row r="208" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J208" s="62"/>
-    </row>
-    <row r="211" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="18"/>
-    </row>
-    <row r="213" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J213" s="62"/>
-    </row>
+      <c r="B208" s="18"/>
+    </row>
+    <row r="209" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J209" s="57"/>
+    </row>
+    <row r="210" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J210" s="57"/>
+    </row>
+    <row r="213" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J214" s="62"/>
-    </row>
-    <row r="218" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="18"/>
-    </row>
-    <row r="219" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J219" s="62"/>
+      <c r="B214" s="18"/>
+    </row>
+    <row r="215" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J215" s="57"/>
+    </row>
+    <row r="216" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J216" s="57"/>
     </row>
     <row r="220" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J220" s="62"/>
-    </row>
-    <row r="223" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="18"/>
-    </row>
-    <row r="225" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J225" s="62"/>
-    </row>
+      <c r="B220" s="18"/>
+    </row>
+    <row r="221" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J221" s="57"/>
+    </row>
+    <row r="222" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J222" s="57"/>
+    </row>
+    <row r="225" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J226" s="62"/>
-    </row>
-    <row r="230" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="18"/>
-    </row>
-    <row r="231" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="18"/>
+      <c r="B226" s="18"/>
+    </row>
+    <row r="227" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J227" s="57"/>
+    </row>
+    <row r="228" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J228" s="57"/>
     </row>
     <row r="232" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="73"/>
+      <c r="B232" s="18"/>
     </row>
     <row r="233" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="73"/>
+      <c r="B233" s="18"/>
     </row>
     <row r="234" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="18"/>
+      <c r="B234" s="66"/>
     </row>
     <row r="235" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="18"/>
+      <c r="B235" s="66"/>
     </row>
     <row r="236" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
@@ -2387,20 +2284,20 @@
       <c r="B237" s="18"/>
     </row>
     <row r="238" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="33"/>
+      <c r="B238" s="18"/>
     </row>
     <row r="239" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
     </row>
     <row r="240" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="18"/>
+      <c r="B240" s="33"/>
+    </row>
+    <row r="241" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="18"/>
     </row>
     <row r="242" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
     </row>
-    <row r="243" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="18"/>
-    </row>
     <row r="244" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="18"/>
     </row>
@@ -2452,43 +2349,49 @@
     <row r="260" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
     </row>
-    <row r="263" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="74"/>
-      <c r="C263" s="75"/>
-      <c r="D263" s="75"/>
-      <c r="E263" s="76"/>
-      <c r="F263" s="53"/>
-      <c r="H263" s="76"/>
-    </row>
-    <row r="264" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="34"/>
-      <c r="B264" s="35"/>
-      <c r="C264" s="36"/>
-    </row>
-    <row r="265" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="34"/>
-      <c r="B265" s="35"/>
-      <c r="C265" s="36"/>
-    </row>
-    <row r="266" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="18"/>
+    </row>
+    <row r="262" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="18"/>
+    </row>
+    <row r="265" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="67"/>
+      <c r="C265" s="82"/>
+      <c r="D265" s="68"/>
+      <c r="E265" s="69"/>
+      <c r="F265" s="49"/>
+      <c r="H265" s="69"/>
+    </row>
+    <row r="266" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="34"/>
       <c r="B266" s="35"/>
-      <c r="C266" s="36"/>
-    </row>
-    <row r="267" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C266" s="83"/>
+    </row>
+    <row r="267" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="34"/>
       <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-    </row>
-    <row r="268" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C267" s="83"/>
+    </row>
+    <row r="268" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="34"/>
       <c r="B268" s="35"/>
-      <c r="C268" s="36"/>
-    </row>
-    <row r="269" spans="1:8" s="47" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C268" s="83"/>
+    </row>
+    <row r="269" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="34"/>
       <c r="B269" s="35"/>
-      <c r="C269" s="36"/>
+      <c r="C269" s="83"/>
+    </row>
+    <row r="270" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="34"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="83"/>
+    </row>
+    <row r="271" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="34"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="83"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{7628E898-5CA1-4554-AD54-5C79B5B36A2A}"/>
@@ -2516,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2593,7 +2496,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14"/>
@@ -5092,19 +4995,19 @@
       <c r="B604" s="16"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B924" s="41"/>
+      <c r="B924" s="39"/>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1099" s="41"/>
+      <c r="B1099" s="39"/>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1215" s="41"/>
+      <c r="B1215" s="39"/>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1233" s="41"/>
+      <c r="B1233" s="39"/>
     </row>
     <row r="2155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2155" s="41"/>
+      <c r="B2155" s="39"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B372:B2251">
@@ -5118,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,24 +5033,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5169,21 +5072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5400,10 +5288,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5426,20 +5340,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F799B98-1689-4924-A121-FFC1CB0B2D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED9EA8-10E1-46BF-9051-26211D248381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,15 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>label::English</t>
   </si>
   <si>
     <t>label::Francais</t>
@@ -81,19 +78,49 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>rCSILessQlty</t>
+  </si>
+  <si>
+    <t>.&gt;=0 and .&lt;=7</t>
+  </si>
+  <si>
+    <t>rCSIBorrow</t>
+  </si>
+  <si>
+    <t>rCSIMealSize</t>
+  </si>
+  <si>
+    <t>rCSIMealAdult</t>
+  </si>
+  <si>
+    <t>rCSIMealNb</t>
   </si>
   <si>
     <t>constraint_message::Francais</t>
   </si>
   <si>
+    <t>La réponse doit être comprise entre 0 et 7</t>
+  </si>
+  <si>
     <t>hint::Francais</t>
+  </si>
+  <si>
+    <t>Note pour les interviewers (ne pas lire à voix haute): Le ménage change les types d’aliments consommés afin de faire face au manque d’aliments.* Cette question couvre les différents types d’aliments consommés plutôt que les quantités consommées.</t>
   </si>
   <si>
     <t>default_language</t>
@@ -105,95 +132,175 @@
     <t>form_title</t>
   </si>
   <si>
-    <t>English</t>
+    <t>noterCSI</t>
   </si>
   <si>
-    <t>standardized_miscquestionnaire</t>
+    <t>Note pour les interviewers (ne pas lire à voix haute):  Le ménages augmente la disponibilité des aliments à court terme en s’appuyant sur l’aide d’amis ou de parents sous forme d’aliments ou d’argent pour acheter des aliments.</t>
   </si>
   <si>
-    <t>date</t>
+    <t>Note pour les interviewers (ne pas lire à voix haute):   Une stratégie de rationnement dans laquelle la plupart des membres du ménage consomment moins de repas dans la journée pour gérer le manque de nourriture.</t>
   </si>
   <si>
-    <t>SvyDatePDM</t>
+    <t>Note pour les interviewers (ne pas lire à voix haute):   Une stratégie de rationnement dans laquelle la quantité de nourriture consommée aux repas est réduite afin de gérer le manque de nourriture</t>
   </si>
   <si>
-    <t>Date de l'enquête</t>
+    <t>Note for interviewers (not to read aloud): Une stratégie de rationnement dans laquelle la consommation des adultes est limitée de manière à ce que les petits enfants aient suffisamment à manger.  Dans les ménages sans enfants, la réponse devrait être zéro.</t>
   </si>
   <si>
-    <t>select_one EnuList</t>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consommer des aliments moins préférés et moins chers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
+    </r>
   </si>
   <si>
-    <t>EnuNamePDM</t>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Emprunter de la nourriture ou compter sur l’aide des parents/amis
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
+    </r>
   </si>
   <si>
-    <t>SupervisorNamePDM</t>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diminuer la quantité consommée pendant les repas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
+    </r>
   </si>
   <si>
-    <t>select_one SupList</t>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Restreindre la consommation des adultes  pour nourrir les enfants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Nom de l'enquêteur  </t>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diminuer le nombre de repas par jour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
+    </r>
   </si>
   <si>
-    <t>Nom du superviseur</t>
+    <t>standardized_rCSIquestionnaire</t>
   </si>
   <si>
-    <t>.&lt;=today()</t>
+    <t xml:space="preserve"> l’indice réduit des stratégies de survie (rCSI)</t>
   </si>
   <si>
-    <t>EnuPartner</t>
-  </si>
-  <si>
-    <t>EnuSex</t>
-  </si>
-  <si>
-    <t>select_one Sex</t>
-  </si>
-  <si>
-    <t>select_one CPList</t>
-  </si>
-  <si>
-    <t>Sexe de l'enquêteur</t>
-  </si>
-  <si>
-    <t>Organisation de l'enquêteur</t>
-  </si>
-  <si>
-    <t>select_one Yesno</t>
-  </si>
-  <si>
-    <t>RESPConsent</t>
-  </si>
-  <si>
-    <t>La personne interrogée accepte-t-elle de procéder à l'entretien dans le cadre du consentement éclairé ?</t>
-  </si>
-  <si>
-    <t>RESPAge</t>
-  </si>
-  <si>
-    <t>RESPSex</t>
-  </si>
-  <si>
-    <t>select_one RelationHHH</t>
-  </si>
-  <si>
-    <t>RESPRelationHHH</t>
-  </si>
-  <si>
-    <t>Âge du répondant</t>
-  </si>
-  <si>
-    <t>Sexe du répondant</t>
-  </si>
-  <si>
-    <t>Quelle est la relation de la répondante avec le chef de meange ?</t>
+    <t>Francais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,12 +490,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -536,7 +637,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -595,20 +696,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,9 +723,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -654,6 +750,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -664,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -696,6 +801,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,43 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1151,19 +1225,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107.140625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="3.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
@@ -1180,1102 +1254,1119 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="70"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="C3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="A4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="72" t="s">
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="72" t="s">
+    <row r="6" spans="1:14" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="42"/>
+    <row r="7" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="G8" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="G9" s="20"/>
+    <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A10" s="31"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
+      <c r="A11" s="31"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="74"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="75"/>
-      <c r="J14" s="49"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="74"/>
-      <c r="J15" s="45"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="47"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="75"/>
-      <c r="J16" s="49"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="47"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="76"/>
-      <c r="J17" s="45"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="47"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="76"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="76"/>
-      <c r="J19" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="47"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="47"/>
+      <c r="E19" s="52"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="76"/>
-      <c r="E21" s="50"/>
-      <c r="J21" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="51"/>
+      <c r="E21" s="31"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="76"/>
-      <c r="E22" s="34"/>
-      <c r="J22" s="36"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="47"/>
+      <c r="E22" s="52"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="77"/>
-      <c r="E23" s="34"/>
-      <c r="J23" s="36"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="47"/>
+      <c r="E23" s="31"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="76"/>
-      <c r="E24" s="50"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="47"/>
+      <c r="E24" s="31"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="76"/>
-      <c r="E25" s="34"/>
-      <c r="J25" s="36"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="47"/>
+      <c r="E25" s="52"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="76"/>
-      <c r="E26" s="34"/>
-      <c r="J26" s="36"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="47"/>
+      <c r="E26" s="31"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="76"/>
-      <c r="E27" s="50"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="47"/>
+      <c r="E27" s="31"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="76"/>
-      <c r="E28" s="34"/>
-      <c r="J28" s="36"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="47"/>
+      <c r="E28" s="52"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="76"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="47"/>
       <c r="E29" s="34"/>
-      <c r="J29" s="36"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="76"/>
-      <c r="E30" s="50"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="47"/>
+      <c r="E30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="76"/>
-      <c r="E31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="76"/>
-      <c r="E32" s="53"/>
-      <c r="J32" s="53"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="76"/>
-      <c r="J33" s="49"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="47"/>
+      <c r="E33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="76"/>
-      <c r="J34" s="49"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="E34" s="44"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="76"/>
-      <c r="E35" s="53"/>
-      <c r="J35" s="53"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="E35" s="44"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="76"/>
-      <c r="E36" s="45"/>
-      <c r="J36" s="49"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="47"/>
+      <c r="E36" s="55"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="76"/>
-      <c r="E37" s="45"/>
-      <c r="J37" s="49"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="E37" s="44"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="76"/>
-      <c r="E38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="E38" s="44"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="76"/>
-      <c r="E39" s="45"/>
-      <c r="J39" s="49"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="47"/>
+      <c r="E39" s="55"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="76"/>
-      <c r="E40" s="45"/>
-      <c r="J40" s="49"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="47"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="76"/>
-      <c r="E41" s="53"/>
-      <c r="J41" s="53"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="47"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="76"/>
-      <c r="J42" s="55"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="47"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="76"/>
-      <c r="J43" s="55"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="47"/>
+      <c r="E43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="76"/>
-      <c r="J44" s="45"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="47"/>
+      <c r="E44" s="61"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="76"/>
-      <c r="E45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="47"/>
+      <c r="E45" s="44"/>
+      <c r="J45" s="56"/>
     </row>
     <row r="46" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="76"/>
-      <c r="E46" s="59"/>
-      <c r="J46" s="58"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="47"/>
+      <c r="E46" s="56"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="76"/>
-      <c r="E47" s="45"/>
-      <c r="J47" s="54"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="47"/>
+      <c r="E47" s="56"/>
+      <c r="J47" s="56"/>
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="76"/>
-      <c r="E48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="47"/>
+      <c r="E48" s="44"/>
+      <c r="J48" s="56"/>
     </row>
     <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="76"/>
-      <c r="E49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="47"/>
+      <c r="E49" s="56"/>
+      <c r="J49" s="56"/>
     </row>
     <row r="50" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="76"/>
-      <c r="E50" s="45"/>
-      <c r="J50" s="54"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="47"/>
+      <c r="E50" s="56"/>
+      <c r="J50" s="56"/>
     </row>
     <row r="51" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="76"/>
-      <c r="E51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="47"/>
+      <c r="E51" s="31"/>
+      <c r="J51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="76"/>
-      <c r="E52" s="54"/>
-      <c r="J52" s="54"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="47"/>
+      <c r="E52" s="31"/>
+      <c r="J52" s="59"/>
     </row>
     <row r="53" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="76"/>
-      <c r="E53" s="34"/>
-      <c r="J53" s="34"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="47"/>
+      <c r="E53" s="31"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="76"/>
-      <c r="E54" s="34"/>
-      <c r="J54" s="57"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="47"/>
+      <c r="E54" s="44"/>
+      <c r="J54" s="37"/>
     </row>
     <row r="55" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="76"/>
-      <c r="E55" s="34"/>
-      <c r="J55" s="57"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="47"/>
+      <c r="E55" s="44"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="76"/>
-      <c r="E56" s="45"/>
-      <c r="J56" s="38"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="47"/>
+      <c r="E56" s="44"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="76"/>
-      <c r="E57" s="45"/>
-      <c r="J57" s="38"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="47"/>
+      <c r="E57" s="31"/>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="76"/>
-      <c r="E58" s="45"/>
-      <c r="J58" s="38"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="47"/>
+      <c r="E58" s="31"/>
+      <c r="J58" s="59"/>
     </row>
     <row r="59" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="76"/>
-      <c r="E59" s="34"/>
-      <c r="J59" s="34"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="47"/>
+      <c r="E59" s="31"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="76"/>
-      <c r="E60" s="34"/>
-      <c r="J60" s="57"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="47"/>
+      <c r="E60" s="31"/>
+      <c r="J60" s="59"/>
     </row>
     <row r="61" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="76"/>
-      <c r="E61" s="34"/>
-      <c r="J61" s="57"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="47"/>
+      <c r="J61" s="59"/>
     </row>
     <row r="62" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="76"/>
-      <c r="E62" s="34"/>
-      <c r="J62" s="57"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="47"/>
+      <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="76"/>
-      <c r="J63" s="57"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="47"/>
+      <c r="E63" s="31"/>
+      <c r="J63" s="44"/>
     </row>
     <row r="64" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="76"/>
-      <c r="J64" s="57"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="47"/>
+      <c r="J64" s="59"/>
     </row>
     <row r="65" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="76"/>
-      <c r="E65" s="34"/>
-      <c r="J65" s="45"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="47"/>
+      <c r="J65" s="59"/>
     </row>
     <row r="66" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="76"/>
-      <c r="J66" s="57"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="47"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="76"/>
-      <c r="J67" s="57"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="47"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="76"/>
-      <c r="J68" s="45"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="47"/>
+      <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="76"/>
-      <c r="J69" s="45"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="47"/>
+      <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="76"/>
-      <c r="J70" s="45"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="47"/>
+      <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="76"/>
-      <c r="J71" s="45"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="76"/>
-      <c r="J72" s="45"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
     </row>
     <row r="73" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="73"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="35"/>
     </row>
     <row r="75" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="18"/>
+      <c r="C75" s="35"/>
     </row>
     <row r="76" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
-      <c r="C76" s="79"/>
+      <c r="C76" s="35"/>
     </row>
     <row r="77" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="79"/>
+      <c r="C77" s="35"/>
     </row>
     <row r="78" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
-      <c r="C78" s="79"/>
+      <c r="C78" s="35"/>
     </row>
     <row r="79" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="18"/>
-      <c r="C79" s="79"/>
+      <c r="C79" s="35"/>
     </row>
     <row r="80" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
-      <c r="C80" s="79"/>
-    </row>
-    <row r="81" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="35"/>
+    </row>
+    <row r="81" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="18"/>
-      <c r="C81" s="79"/>
-    </row>
-    <row r="82" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="35"/>
+    </row>
+    <row r="82" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="18"/>
-      <c r="C82" s="79"/>
-    </row>
-    <row r="83" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="65"/>
+    </row>
+    <row r="83" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
-      <c r="C83" s="79"/>
-    </row>
-    <row r="84" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="66"/>
+    </row>
+    <row r="84" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
-      <c r="C84" s="80"/>
+      <c r="C84" s="35"/>
     </row>
     <row r="85" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
-      <c r="C85" s="81"/>
+      <c r="C85" s="35"/>
     </row>
     <row r="86" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
-      <c r="C86" s="79"/>
+      <c r="C86" s="35"/>
     </row>
     <row r="87" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
-      <c r="C87" s="79"/>
+      <c r="C87" s="35"/>
     </row>
     <row r="88" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="18"/>
-      <c r="C88" s="79"/>
+      <c r="C88" s="35"/>
     </row>
     <row r="89" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="18"/>
-      <c r="C89" s="79"/>
+      <c r="C89" s="35"/>
     </row>
     <row r="90" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="18"/>
-      <c r="C90" s="79"/>
+      <c r="C90" s="35"/>
     </row>
     <row r="91" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="18"/>
-      <c r="C91" s="79"/>
+      <c r="C91" s="35"/>
     </row>
     <row r="92" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="18"/>
-      <c r="C92" s="79"/>
+      <c r="C92" s="35"/>
     </row>
     <row r="93" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="18"/>
-      <c r="C93" s="79"/>
+      <c r="C93" s="35"/>
     </row>
     <row r="94" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="18"/>
-      <c r="C94" s="79"/>
+      <c r="C94" s="35"/>
     </row>
     <row r="95" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="18"/>
-      <c r="C95" s="79"/>
+      <c r="C95" s="35"/>
     </row>
     <row r="96" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="18"/>
-      <c r="C96" s="79"/>
+      <c r="C96" s="35"/>
     </row>
     <row r="97" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="18"/>
-      <c r="C97" s="79"/>
+      <c r="C97" s="35"/>
     </row>
     <row r="98" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="18"/>
-      <c r="C98" s="79"/>
+      <c r="C98" s="35"/>
     </row>
     <row r="99" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="18"/>
-      <c r="C99" s="79"/>
+      <c r="C99" s="35"/>
     </row>
     <row r="100" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="18"/>
-      <c r="C100" s="79"/>
+      <c r="C100" s="35"/>
     </row>
     <row r="101" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="18"/>
-      <c r="C101" s="79"/>
+      <c r="C101" s="35"/>
     </row>
     <row r="102" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="18"/>
-      <c r="C102" s="79"/>
+      <c r="C102" s="35"/>
     </row>
     <row r="103" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="18"/>
-      <c r="C103" s="79"/>
+      <c r="C103" s="35"/>
     </row>
     <row r="104" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="18"/>
-      <c r="C104" s="79"/>
+      <c r="C104" s="35"/>
     </row>
     <row r="105" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
-      <c r="C105" s="79"/>
+      <c r="C105" s="35"/>
     </row>
     <row r="106" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="18"/>
-      <c r="C106" s="79"/>
+      <c r="C106" s="35"/>
     </row>
     <row r="107" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="18"/>
-      <c r="C107" s="79"/>
+      <c r="C107" s="35"/>
     </row>
     <row r="108" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="18"/>
-      <c r="C108" s="79"/>
+      <c r="C108" s="35"/>
     </row>
     <row r="109" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="18"/>
-      <c r="C109" s="79"/>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="18"/>
-      <c r="C110" s="79"/>
+      <c r="C110" s="35"/>
     </row>
     <row r="111" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="18"/>
-      <c r="C111" s="79"/>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
-      <c r="C112" s="79"/>
+      <c r="C112" s="35"/>
     </row>
     <row r="113" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
-      <c r="C113" s="79"/>
+      <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
-      <c r="C114" s="79"/>
+      <c r="C114" s="35"/>
     </row>
     <row r="115" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
-      <c r="C115" s="79"/>
     </row>
     <row r="116" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="18"/>
-      <c r="C116" s="79"/>
+      <c r="B116" s="31"/>
+      <c r="J116" s="31"/>
     </row>
     <row r="117" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="34"/>
+      <c r="B118" s="36"/>
       <c r="J118" s="34"/>
     </row>
     <row r="119" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="18"/>
-    </row>
-    <row r="120" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="37"/>
-      <c r="J120" s="36"/>
-    </row>
-    <row r="121" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="18"/>
-      <c r="C121" s="79"/>
+      <c r="C119" s="35"/>
+    </row>
+    <row r="124" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="J124" s="34"/>
+    </row>
+    <row r="125" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="67"/>
+      <c r="B125" s="36"/>
+      <c r="J125" s="34"/>
     </row>
     <row r="126" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="J126" s="36"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="53"/>
+      <c r="J126" s="32"/>
     </row>
     <row r="127" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
-      <c r="B127" s="37"/>
-      <c r="J127" s="36"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="J127" s="34"/>
     </row>
     <row r="128" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
-      <c r="B128" s="51"/>
-      <c r="J128" s="35"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="36"/>
+      <c r="J128" s="34"/>
     </row>
     <row r="129" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
-      <c r="J129" s="36"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="32"/>
+      <c r="J129" s="32"/>
     </row>
     <row r="130" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
-      <c r="B130" s="37"/>
-      <c r="J130" s="36"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="J130" s="34"/>
     </row>
     <row r="131" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="35"/>
-      <c r="J131" s="35"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="54"/>
+      <c r="J131" s="55"/>
     </row>
     <row r="132" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
-      <c r="J132" s="36"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
+      <c r="J132" s="50"/>
     </row>
     <row r="133" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="45"/>
-      <c r="B133" s="52"/>
-      <c r="J133" s="53"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="18"/>
+      <c r="J133" s="50"/>
     </row>
     <row r="134" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="J134" s="49"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="54"/>
+      <c r="J134" s="55"/>
     </row>
     <row r="135" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
-      <c r="B135" s="18"/>
-      <c r="J135" s="49"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="J135" s="50"/>
     </row>
     <row r="136" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
-      <c r="B136" s="52"/>
-      <c r="J136" s="53"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="44"/>
+      <c r="J136" s="50"/>
     </row>
     <row r="137" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="J137" s="49"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="54"/>
+      <c r="J137" s="55"/>
     </row>
     <row r="138" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="63"/>
-      <c r="B138" s="45"/>
-      <c r="J138" s="49"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="J138" s="50"/>
     </row>
     <row r="139" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
-      <c r="B139" s="52"/>
-      <c r="J139" s="53"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="18"/>
+      <c r="J139" s="50"/>
     </row>
     <row r="140" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="J140" s="49"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="54"/>
+      <c r="J140" s="55"/>
     </row>
     <row r="141" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
-      <c r="B141" s="18"/>
-      <c r="J141" s="49"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="56"/>
+      <c r="J141" s="57"/>
     </row>
     <row r="142" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="45"/>
-      <c r="B142" s="52"/>
-      <c r="J142" s="53"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="18"/>
+      <c r="J142" s="57"/>
     </row>
     <row r="143" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="45"/>
-      <c r="B143" s="54"/>
-      <c r="J143" s="55"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="44"/>
+      <c r="J143" s="44"/>
     </row>
     <row r="144" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="18"/>
-      <c r="J144" s="55"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="J144" s="44"/>
     </row>
     <row r="145" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="J145" s="45"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="32"/>
+      <c r="J145" s="31"/>
     </row>
     <row r="146" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="J146" s="45"/>
+      <c r="A146" s="59"/>
+      <c r="B146" s="60"/>
+      <c r="J146" s="60"/>
     </row>
     <row r="147" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
-      <c r="B147" s="35"/>
-      <c r="J147" s="34"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="62"/>
+      <c r="J147" s="56"/>
     </row>
     <row r="148" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="57"/>
-      <c r="B148" s="58"/>
-      <c r="J148" s="58"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="63"/>
+      <c r="J148" s="56"/>
     </row>
     <row r="149" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="45"/>
-      <c r="B149" s="60"/>
-      <c r="J149" s="54"/>
+      <c r="A149" s="67"/>
+      <c r="B149" s="63"/>
+      <c r="J149" s="56"/>
     </row>
     <row r="150" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
-      <c r="B150" s="61"/>
-      <c r="J150" s="54"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="62"/>
+      <c r="J150" s="56"/>
     </row>
     <row r="151" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="61"/>
-      <c r="J151" s="54"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="58"/>
+      <c r="J151" s="56"/>
     </row>
     <row r="152" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
-      <c r="B152" s="60"/>
-      <c r="J152" s="54"/>
+      <c r="A152" s="67"/>
+      <c r="B152" s="58"/>
+      <c r="J152" s="56"/>
     </row>
     <row r="153" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="45"/>
-      <c r="B153" s="56"/>
-      <c r="J153" s="54"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="32"/>
+      <c r="J153" s="31"/>
     </row>
     <row r="154" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="56"/>
-      <c r="J154" s="54"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="31"/>
+      <c r="J154" s="59"/>
     </row>
     <row r="155" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="35"/>
-      <c r="J155" s="34"/>
+      <c r="A155" s="67"/>
+      <c r="B155" s="18"/>
+      <c r="J155" s="59"/>
     </row>
     <row r="156" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="34"/>
-      <c r="J156" s="57"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="54"/>
+      <c r="J156" s="37"/>
     </row>
     <row r="157" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
-      <c r="B157" s="18"/>
-      <c r="J157" s="57"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="44"/>
+      <c r="J157" s="37"/>
     </row>
     <row r="158" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45"/>
-      <c r="B158" s="52"/>
-      <c r="J158" s="38"/>
+      <c r="A158" s="67"/>
+      <c r="B158" s="44"/>
+      <c r="J158" s="37"/>
     </row>
     <row r="159" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
-      <c r="J159" s="38"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="32"/>
+      <c r="J159" s="31"/>
     </row>
     <row r="160" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
-      <c r="B160" s="45"/>
-      <c r="J160" s="38"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="64"/>
+      <c r="J160" s="59"/>
     </row>
     <row r="161" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="35"/>
-      <c r="J161" s="34"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="18"/>
+      <c r="J161" s="59"/>
     </row>
     <row r="162" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="62"/>
-      <c r="J162" s="57"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="53"/>
+      <c r="J162" s="59"/>
     </row>
     <row r="163" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
-      <c r="B163" s="18"/>
-      <c r="J163" s="57"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="64"/>
+      <c r="J163" s="59"/>
     </row>
     <row r="164" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="51"/>
-      <c r="J164" s="57"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="18"/>
+      <c r="J164" s="59"/>
     </row>
     <row r="165" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="62"/>
-      <c r="J165" s="57"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="64"/>
+      <c r="J165" s="59"/>
     </row>
     <row r="166" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="18"/>
-      <c r="J166" s="57"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="64"/>
+      <c r="J166" s="59"/>
     </row>
     <row r="167" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="62"/>
-      <c r="J167" s="57"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="18"/>
+      <c r="J167" s="59"/>
     </row>
     <row r="168" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="62"/>
-      <c r="J168" s="57"/>
-    </row>
-    <row r="169" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
-      <c r="B169" s="18"/>
-      <c r="J169" s="57"/>
+      <c r="A168" s="68"/>
+      <c r="B168" s="69"/>
     </row>
     <row r="170" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="64"/>
-      <c r="B170" s="65"/>
+      <c r="B170" s="18"/>
+    </row>
+    <row r="171" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J171" s="59"/>
     </row>
     <row r="172" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="18"/>
-    </row>
-    <row r="173" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J173" s="57"/>
-    </row>
-    <row r="174" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J174" s="57"/>
+      <c r="J172" s="59"/>
+    </row>
+    <row r="176" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="18"/>
+    </row>
+    <row r="177" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J177" s="59"/>
     </row>
     <row r="178" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="18"/>
-    </row>
-    <row r="179" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J179" s="57"/>
-    </row>
-    <row r="180" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J180" s="57"/>
+      <c r="J178" s="59"/>
+    </row>
+    <row r="182" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="18"/>
+    </row>
+    <row r="183" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J183" s="59"/>
     </row>
     <row r="184" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="18"/>
-    </row>
-    <row r="185" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J185" s="57"/>
-    </row>
-    <row r="186" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J186" s="57"/>
-    </row>
-    <row r="189" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J184" s="59"/>
+    </row>
+    <row r="187" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="18"/>
+    </row>
+    <row r="189" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J189" s="59"/>
+    </row>
     <row r="190" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="18"/>
-    </row>
-    <row r="191" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J191" s="57"/>
-    </row>
-    <row r="192" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J192" s="57"/>
+      <c r="J190" s="59"/>
+    </row>
+    <row r="194" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="18"/>
+    </row>
+    <row r="195" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J195" s="59"/>
     </row>
     <row r="196" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="18"/>
-    </row>
-    <row r="197" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J197" s="57"/>
-    </row>
-    <row r="198" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J198" s="57"/>
-    </row>
-    <row r="201" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J196" s="59"/>
+    </row>
+    <row r="199" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="18"/>
+    </row>
+    <row r="201" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J201" s="59"/>
+    </row>
     <row r="202" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="18"/>
-    </row>
-    <row r="203" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J203" s="57"/>
-    </row>
-    <row r="204" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J204" s="57"/>
+      <c r="J202" s="59"/>
+    </row>
+    <row r="206" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="18"/>
+    </row>
+    <row r="207" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J207" s="59"/>
     </row>
     <row r="208" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="18"/>
-    </row>
-    <row r="209" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J209" s="57"/>
-    </row>
-    <row r="210" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J210" s="57"/>
-    </row>
-    <row r="213" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J208" s="59"/>
+    </row>
+    <row r="211" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="18"/>
+    </row>
+    <row r="213" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J213" s="59"/>
+    </row>
     <row r="214" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="18"/>
-    </row>
-    <row r="215" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J215" s="57"/>
-    </row>
-    <row r="216" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J216" s="57"/>
+      <c r="J214" s="59"/>
+    </row>
+    <row r="218" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="18"/>
+    </row>
+    <row r="219" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J219" s="59"/>
     </row>
     <row r="220" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="18"/>
-    </row>
-    <row r="221" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J221" s="57"/>
-    </row>
-    <row r="222" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J222" s="57"/>
-    </row>
-    <row r="225" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J220" s="59"/>
+    </row>
+    <row r="223" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="18"/>
+    </row>
+    <row r="225" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J225" s="59"/>
+    </row>
     <row r="226" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="18"/>
-    </row>
-    <row r="227" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J227" s="57"/>
-    </row>
-    <row r="228" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J228" s="57"/>
+      <c r="J226" s="59"/>
+    </row>
+    <row r="230" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="18"/>
+    </row>
+    <row r="231" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="18"/>
     </row>
     <row r="232" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="18"/>
+      <c r="B232" s="70"/>
     </row>
     <row r="233" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="18"/>
+      <c r="B233" s="70"/>
     </row>
     <row r="234" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="66"/>
+      <c r="B234" s="18"/>
     </row>
     <row r="235" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="66"/>
+      <c r="B235" s="18"/>
     </row>
     <row r="236" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
@@ -2284,20 +2375,20 @@
       <c r="B237" s="18"/>
     </row>
     <row r="238" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="18"/>
+      <c r="B238" s="30"/>
     </row>
     <row r="239" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
     </row>
     <row r="240" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="33"/>
-    </row>
-    <row r="241" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="18"/>
+      <c r="B240" s="18"/>
     </row>
     <row r="242" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
     </row>
+    <row r="243" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="18"/>
+    </row>
     <row r="244" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="18"/>
     </row>
@@ -2349,49 +2440,43 @@
     <row r="260" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
     </row>
-    <row r="261" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="18"/>
-    </row>
-    <row r="262" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="18"/>
-    </row>
-    <row r="265" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="67"/>
-      <c r="C265" s="82"/>
-      <c r="D265" s="68"/>
-      <c r="E265" s="69"/>
-      <c r="F265" s="49"/>
-      <c r="H265" s="69"/>
-    </row>
-    <row r="266" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="34"/>
-      <c r="B266" s="35"/>
-      <c r="C266" s="83"/>
-    </row>
-    <row r="267" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="34"/>
-      <c r="B267" s="35"/>
-      <c r="C267" s="83"/>
-    </row>
-    <row r="268" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="34"/>
-      <c r="B268" s="35"/>
-      <c r="C268" s="83"/>
-    </row>
-    <row r="269" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="34"/>
-      <c r="B269" s="35"/>
-      <c r="C269" s="83"/>
-    </row>
-    <row r="270" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="34"/>
-      <c r="B270" s="35"/>
-      <c r="C270" s="83"/>
-    </row>
-    <row r="271" spans="1:8" s="45" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="34"/>
-      <c r="B271" s="35"/>
-      <c r="C271" s="83"/>
+    <row r="263" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="71"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="73"/>
+      <c r="F263" s="50"/>
+      <c r="H263" s="73"/>
+    </row>
+    <row r="264" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="31"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="33"/>
+    </row>
+    <row r="265" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="31"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="33"/>
+    </row>
+    <row r="266" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="31"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="33"/>
+    </row>
+    <row r="267" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="31"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="33"/>
+    </row>
+    <row r="268" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="31"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="33"/>
+    </row>
+    <row r="269" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="31"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{7628E898-5CA1-4554-AD54-5C79B5B36A2A}"/>
@@ -2403,21 +2488,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2155"/>
+  <dimension ref="A1:C2155"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="54.7109375" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="54.7109375" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -2427,1980 +2512,1608 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="C12"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="C13"/>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="C14"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
-      <c r="C64"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
-      <c r="C65"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="22"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="22"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="22"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="22"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="22"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="22"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="23"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="11"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="11"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="11"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="11"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="11"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="11"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="11"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="11"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="11"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="11"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="11"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="11"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="11"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="11"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="11"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="11"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="11"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="11"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="11"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="11"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="11"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="11"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="11"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="11"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="11"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="11"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="11"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="11"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="11"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="11"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="11"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="11"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="11"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="11"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="11"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="11"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="11"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="11"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="11"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="11"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="11"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="11"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="11"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="11"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="11"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="11"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="11"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="11"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="11"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="11"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="11"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="11"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="11"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="11"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="11"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="11"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="11"/>
       <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="11"/>
       <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="11"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="11"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="11"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="11"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="11"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="11"/>
       <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="11"/>
       <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="11"/>
       <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="11"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="11"/>
       <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="11"/>
       <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="11"/>
       <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="11"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="11"/>
       <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="11"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="11"/>
       <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="11"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="11"/>
       <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="11"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="11"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="11"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="11"/>
       <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="11"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="11"/>
       <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="11"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="11"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="11"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="11"/>
       <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="11"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="11"/>
       <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="11"/>
       <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="11"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="11"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="11"/>
       <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="11"/>
       <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="11"/>
       <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="11"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="11"/>
       <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="11"/>
       <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="11"/>
       <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="11"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="11"/>
       <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="11"/>
       <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="11"/>
       <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="11"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="11"/>
       <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="11"/>
       <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="11"/>
       <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="11"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="11"/>
       <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="11"/>
       <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="11"/>
       <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="11"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="11"/>
       <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="11"/>
       <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="11"/>
       <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="11"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="11"/>
       <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="11"/>
       <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="11"/>
       <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="11"/>
       <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="11"/>
       <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="11"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="11"/>
       <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="11"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="11"/>
       <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="11"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="11"/>
       <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="11"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="11"/>
       <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="11"/>
       <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="11"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="11"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="11"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="11"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="11"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="11"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="11"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="11"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="11"/>
       <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="11"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="11"/>
       <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="11"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="11"/>
       <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="11"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="11"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="11"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="11"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="11"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="6"/>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="11"/>
       <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="11"/>
       <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="11"/>
       <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="11"/>
       <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="11"/>
       <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="11"/>
       <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="11"/>
       <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="11"/>
       <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="11"/>
       <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="11"/>
       <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="11"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="11"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="11"/>
       <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="11"/>
       <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="11"/>
       <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-    </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="11"/>
       <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-    </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="11"/>
       <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="11"/>
       <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-    </row>
-    <row r="303" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="2:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="11"/>
       <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-    </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="11"/>
       <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="11"/>
       <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="11"/>
       <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="11"/>
       <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="11"/>
       <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="11"/>
       <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="11"/>
       <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="11"/>
       <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="11"/>
       <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="11"/>
       <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="11"/>
       <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-    </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="11"/>
       <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="11"/>
       <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="11"/>
       <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="11"/>
       <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="11"/>
       <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="11"/>
       <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="11"/>
       <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="11"/>
       <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="11"/>
       <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="11"/>
       <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="11"/>
       <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-    </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="11"/>
       <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="11"/>
       <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="11"/>
       <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-    </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="11"/>
       <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="11"/>
       <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="11"/>
       <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="11"/>
       <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="11"/>
       <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="11"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-    </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="11"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="11"/>
       <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="11"/>
       <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="11"/>
       <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="11"/>
       <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="11"/>
       <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="11"/>
       <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="11"/>
       <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="11"/>
       <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="11"/>
       <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="11"/>
       <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="11"/>
       <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="11"/>
       <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="11"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="11"/>
       <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="11"/>
       <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="11"/>
       <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="11"/>
       <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="11"/>
       <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="11"/>
       <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="11"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="11"/>
       <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="11"/>
       <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="11"/>
       <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="11"/>
       <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="11"/>
       <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="11"/>
       <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="11"/>
       <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="11"/>
       <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="11"/>
       <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="11"/>
       <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="11"/>
       <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="11"/>
       <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
-    </row>
-    <row r="368" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="2:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11"/>
       <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="11"/>
       <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="11"/>
       <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="12"/>
       <c r="C371" s="7"/>
-      <c r="D371" s="7"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="12"/>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="12"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="12"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="12"/>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="12"/>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="12"/>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="13"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="13"/>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="13"/>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="13"/>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="13"/>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="13"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="13"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
@@ -4995,19 +4708,19 @@
       <c r="B604" s="16"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B924" s="39"/>
+      <c r="B924" s="38"/>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1099" s="39"/>
+      <c r="B1099" s="38"/>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1215" s="39"/>
+      <c r="B1215" s="38"/>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1233" s="39"/>
+      <c r="B1233" s="38"/>
     </row>
     <row r="2155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2155" s="39"/>
+      <c r="B2155" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B372:B2251">
@@ -5021,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,25 +4745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>18</v>
+      <c r="A1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>21</v>
+      <c r="A2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5072,6 +4785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5288,36 +5016,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5340,9 +5042,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED9EA8-10E1-46BF-9051-26211D248381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113664A-C418-4DF5-953C-BAF3C5EC817B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1227,10 +1227,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N269"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2491,7 @@
   <dimension ref="A1:C2155"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +4734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4785,18 +4785,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5017,14 +5017,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5037,6 +5029,14 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnairerCSI_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113664A-C418-4DF5-953C-BAF3C5EC817B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B6C13-CC3F-46C8-99BD-2E87305AE707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -147,6 +147,15 @@
     <t>Note for interviewers (not to read aloud): Une stratégie de rationnement dans laquelle la consommation des adultes est limitée de manière à ce que les petits enfants aient suffisamment à manger.  Dans les ménages sans enfants, la réponse devrait être zéro.</t>
   </si>
   <si>
+    <t>standardized_rCSIquestionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’indice réduit des stratégies de survie (rCSI)</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours votre ménage a-t-il dû
 </t>
@@ -154,18 +163,16 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Consommer des aliments moins préférés et moins chers</t>
+      <t xml:space="preserve">&lt;span style="color:red"&gt;   Consommer des aliments moins préférés et moins chers &lt;/span&gt;  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -182,19 +189,17 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Emprunter de la nourriture ou compter sur l’aide des parents/amis
+      <t xml:space="preserve">&lt;span style="color:red"&gt;  Emprunter de la nourriture ou compter sur l’aide des parents/amis &lt;/span&gt;  
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -210,18 +215,16 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Diminuer la quantité consommée pendant les repas</t>
+      <t xml:space="preserve">&lt;span style="color:red"&gt;   Diminuer la quantité consommée pendant les repas &lt;/span&gt;  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -238,18 +241,16 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Restreindre la consommation des adultes  pour nourrir les enfants</t>
+      <t xml:space="preserve">&lt;span style="color:red"&gt;   Restreindre la consommation des adultes  pour nourrir les enfants &lt;/span&gt;  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -266,18 +267,16 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Diminuer le nombre de repas par jour</t>
+      <t xml:space="preserve"> &lt;span style="color:red"&gt;  Diminuer le nombre de repas par jour &lt;/span&gt;  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -286,21 +285,12 @@
 parce que vous n'aviez pas assez de nourriture ou de l'argent pour acheter de la nourriture ?</t>
     </r>
   </si>
-  <si>
-    <t>standardized_rCSIquestionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’indice réduit des stratégies de survie (rCSI)</t>
-  </si>
-  <si>
-    <t>Francais</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +480,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +640,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,13 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -757,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -828,8 +821,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1230,7 +1246,7 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1291,137 +1307,136 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:14" s="74" customFormat="1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="74" customFormat="1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="74" customFormat="1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="74" customFormat="1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="D6" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="74" customFormat="1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="B7" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G7" s="78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
@@ -1435,410 +1450,410 @@
     </row>
     <row r="10" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="45"/>
-      <c r="J11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
-      <c r="J12" s="50"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="45"/>
-      <c r="J13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="J14" s="50"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="47"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="44"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="47"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="47"/>
-      <c r="J17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="47"/>
-      <c r="J18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="47"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="44"/>
+      <c r="E19" s="48"/>
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="44"/>
       <c r="E20" s="31"/>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="47"/>
       <c r="E21" s="31"/>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="47"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="E22" s="48"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="44"/>
       <c r="E23" s="31"/>
       <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="31"/>
       <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="47"/>
-      <c r="E25" s="52"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="44"/>
+      <c r="E25" s="48"/>
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="47"/>
+      <c r="C26" s="44"/>
       <c r="E26" s="31"/>
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="47"/>
+      <c r="C27" s="44"/>
       <c r="E27" s="31"/>
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="47"/>
-      <c r="E28" s="52"/>
+      <c r="C28" s="44"/>
+      <c r="E28" s="48"/>
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="47"/>
+      <c r="C29" s="44"/>
       <c r="E29" s="34"/>
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="47"/>
-      <c r="E30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="44"/>
+      <c r="E30" s="51"/>
+      <c r="J30" s="51"/>
     </row>
     <row r="31" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47"/>
-      <c r="J31" s="50"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="44"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="J32" s="50"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="44"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="47"/>
-      <c r="E33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="44"/>
+      <c r="E33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="47"/>
-      <c r="E34" s="44"/>
-      <c r="J34" s="50"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="44"/>
+      <c r="E34" s="41"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="47"/>
-      <c r="E35" s="44"/>
-      <c r="J35" s="50"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="44"/>
+      <c r="E35" s="41"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="47"/>
-      <c r="E36" s="55"/>
-      <c r="J36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="47"/>
-      <c r="E37" s="44"/>
-      <c r="J37" s="50"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
+      <c r="E37" s="41"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="47"/>
-      <c r="E38" s="44"/>
-      <c r="J38" s="50"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="44"/>
+      <c r="E38" s="41"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="47"/>
-      <c r="E39" s="55"/>
-      <c r="J39" s="55"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="47"/>
-      <c r="J40" s="57"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="44"/>
+      <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="47"/>
-      <c r="J41" s="57"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="44"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="47"/>
-      <c r="J42" s="44"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="44"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="44"/>
       <c r="E43" s="31"/>
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="47"/>
-      <c r="E44" s="61"/>
-      <c r="J44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="44"/>
+      <c r="E44" s="57"/>
+      <c r="J44" s="56"/>
     </row>
     <row r="45" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="47"/>
-      <c r="E45" s="44"/>
-      <c r="J45" s="56"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="44"/>
+      <c r="E45" s="41"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="47"/>
-      <c r="E46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="44"/>
+      <c r="E46" s="52"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="47"/>
-      <c r="E47" s="56"/>
-      <c r="J47" s="56"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="44"/>
+      <c r="E47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="47"/>
-      <c r="E48" s="44"/>
-      <c r="J48" s="56"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="44"/>
+      <c r="E48" s="41"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="47"/>
-      <c r="E49" s="56"/>
-      <c r="J49" s="56"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="44"/>
+      <c r="E49" s="52"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="47"/>
-      <c r="E50" s="56"/>
-      <c r="J50" s="56"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="44"/>
+      <c r="E50" s="52"/>
+      <c r="J50" s="52"/>
     </row>
     <row r="51" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="32"/>
-      <c r="C51" s="47"/>
+      <c r="C51" s="44"/>
       <c r="E51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="47"/>
+      <c r="C52" s="44"/>
       <c r="E52" s="31"/>
-      <c r="J52" s="59"/>
+      <c r="J52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="47"/>
+      <c r="C53" s="44"/>
       <c r="E53" s="31"/>
-      <c r="J53" s="59"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="47"/>
-      <c r="E54" s="44"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="44"/>
+      <c r="E54" s="41"/>
       <c r="J54" s="37"/>
     </row>
     <row r="55" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="47"/>
-      <c r="E55" s="44"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="44"/>
+      <c r="E55" s="41"/>
       <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="47"/>
-      <c r="E56" s="44"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="44"/>
+      <c r="E56" s="41"/>
       <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="47"/>
+      <c r="C57" s="44"/>
       <c r="E57" s="31"/>
       <c r="J57" s="31"/>
     </row>
     <row r="58" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="44"/>
       <c r="E58" s="31"/>
-      <c r="J58" s="59"/>
+      <c r="J58" s="55"/>
     </row>
     <row r="59" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="44"/>
       <c r="E59" s="31"/>
-      <c r="J59" s="59"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="47"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="44"/>
       <c r="E60" s="31"/>
-      <c r="J60" s="59"/>
+      <c r="J60" s="55"/>
     </row>
     <row r="61" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="47"/>
-      <c r="J61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="44"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="47"/>
-      <c r="J62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="44"/>
+      <c r="J62" s="55"/>
     </row>
     <row r="63" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="44"/>
       <c r="E63" s="31"/>
-      <c r="J63" s="44"/>
+      <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="47"/>
-      <c r="J64" s="59"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="44"/>
+      <c r="J64" s="55"/>
     </row>
     <row r="65" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="47"/>
-      <c r="J65" s="59"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="44"/>
+      <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="47"/>
-      <c r="J66" s="44"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="44"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="47"/>
-      <c r="J67" s="44"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="44"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="47"/>
-      <c r="J68" s="44"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="44"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="47"/>
-      <c r="J69" s="44"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="44"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="47"/>
-      <c r="J70" s="44"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="44"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,11 +1899,11 @@
     </row>
     <row r="82" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="18"/>
-      <c r="C82" s="65"/>
+      <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
-      <c r="C83" s="66"/>
+      <c r="C83" s="62"/>
     </row>
     <row r="84" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
@@ -2038,13 +2053,13 @@
       <c r="J124" s="34"/>
     </row>
     <row r="125" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="36"/>
       <c r="J125" s="34"/>
     </row>
     <row r="126" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
-      <c r="B126" s="53"/>
+      <c r="B126" s="49"/>
       <c r="J126" s="32"/>
     </row>
     <row r="127" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,7 +2068,7 @@
       <c r="J127" s="34"/>
     </row>
     <row r="128" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="36"/>
       <c r="J128" s="34"/>
     </row>
@@ -2068,74 +2083,74 @@
       <c r="J130" s="34"/>
     </row>
     <row r="131" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
-      <c r="B131" s="54"/>
-      <c r="J131" s="55"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="50"/>
+      <c r="J131" s="51"/>
     </row>
     <row r="132" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
-      <c r="J132" s="50"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="41"/>
+      <c r="J132" s="46"/>
     </row>
     <row r="133" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="18"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="46"/>
     </row>
     <row r="134" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="54"/>
-      <c r="J134" s="55"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="50"/>
+      <c r="J134" s="51"/>
     </row>
     <row r="135" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
-      <c r="J135" s="50"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="J135" s="46"/>
     </row>
     <row r="136" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="44"/>
-      <c r="J136" s="50"/>
+      <c r="A136" s="63"/>
+      <c r="B136" s="41"/>
+      <c r="J136" s="46"/>
     </row>
     <row r="137" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="54"/>
-      <c r="J137" s="55"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="50"/>
+      <c r="J137" s="51"/>
     </row>
     <row r="138" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="J138" s="50"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
+      <c r="J138" s="46"/>
     </row>
     <row r="139" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="18"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="46"/>
     </row>
     <row r="140" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="54"/>
-      <c r="J140" s="55"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="50"/>
+      <c r="J140" s="51"/>
     </row>
     <row r="141" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="56"/>
-      <c r="J141" s="57"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="52"/>
+      <c r="J141" s="53"/>
     </row>
     <row r="142" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="18"/>
-      <c r="J142" s="57"/>
+      <c r="J142" s="53"/>
     </row>
     <row r="143" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
-      <c r="J143" s="44"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
+      <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
-      <c r="J144" s="44"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="41"/>
+      <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="31"/>
@@ -2143,39 +2158,39 @@
       <c r="J145" s="31"/>
     </row>
     <row r="146" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59"/>
-      <c r="B146" s="60"/>
-      <c r="J146" s="60"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="56"/>
+      <c r="J146" s="56"/>
     </row>
     <row r="147" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="62"/>
-      <c r="J147" s="56"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="58"/>
+      <c r="J147" s="52"/>
     </row>
     <row r="148" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
-      <c r="B148" s="63"/>
-      <c r="J148" s="56"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="59"/>
+      <c r="J148" s="52"/>
     </row>
     <row r="149" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="63"/>
-      <c r="J149" s="56"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="59"/>
+      <c r="J149" s="52"/>
     </row>
     <row r="150" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="62"/>
-      <c r="J150" s="56"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="58"/>
+      <c r="J150" s="52"/>
     </row>
     <row r="151" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
-      <c r="B151" s="58"/>
-      <c r="J151" s="56"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="54"/>
+      <c r="J151" s="52"/>
     </row>
     <row r="152" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
-      <c r="B152" s="58"/>
-      <c r="J152" s="56"/>
+      <c r="A152" s="63"/>
+      <c r="B152" s="54"/>
+      <c r="J152" s="52"/>
     </row>
     <row r="153" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
@@ -2185,26 +2200,26 @@
     <row r="154" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
-      <c r="J154" s="59"/>
+      <c r="J154" s="55"/>
     </row>
     <row r="155" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="63"/>
       <c r="B155" s="18"/>
-      <c r="J155" s="59"/>
+      <c r="J155" s="55"/>
     </row>
     <row r="156" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
-      <c r="B156" s="54"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="50"/>
       <c r="J156" s="37"/>
     </row>
     <row r="157" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
-      <c r="B157" s="44"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="41"/>
       <c r="J157" s="37"/>
     </row>
     <row r="158" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="44"/>
+      <c r="A158" s="63"/>
+      <c r="B158" s="41"/>
       <c r="J158" s="37"/>
     </row>
     <row r="159" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,141 +2229,141 @@
     </row>
     <row r="160" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="31"/>
-      <c r="B160" s="64"/>
-      <c r="J160" s="59"/>
+      <c r="B160" s="60"/>
+      <c r="J160" s="55"/>
     </row>
     <row r="161" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="18"/>
-      <c r="J161" s="59"/>
+      <c r="J161" s="55"/>
     </row>
     <row r="162" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="31"/>
-      <c r="B162" s="53"/>
-      <c r="J162" s="59"/>
+      <c r="B162" s="49"/>
+      <c r="J162" s="55"/>
     </row>
     <row r="163" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="31"/>
-      <c r="B163" s="64"/>
-      <c r="J163" s="59"/>
+      <c r="B163" s="60"/>
+      <c r="J163" s="55"/>
     </row>
     <row r="164" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
+      <c r="A164" s="63"/>
       <c r="B164" s="18"/>
-      <c r="J164" s="59"/>
+      <c r="J164" s="55"/>
     </row>
     <row r="165" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="31"/>
-      <c r="B165" s="64"/>
-      <c r="J165" s="59"/>
+      <c r="B165" s="60"/>
+      <c r="J165" s="55"/>
     </row>
     <row r="166" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="31"/>
-      <c r="B166" s="64"/>
-      <c r="J166" s="59"/>
+      <c r="B166" s="60"/>
+      <c r="J166" s="55"/>
     </row>
     <row r="167" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="67"/>
+      <c r="A167" s="63"/>
       <c r="B167" s="18"/>
-      <c r="J167" s="59"/>
+      <c r="J167" s="55"/>
     </row>
     <row r="168" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="68"/>
-      <c r="B168" s="69"/>
+      <c r="A168" s="64"/>
+      <c r="B168" s="65"/>
     </row>
     <row r="170" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="18"/>
     </row>
     <row r="171" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J171" s="59"/>
+      <c r="J171" s="55"/>
     </row>
     <row r="172" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J172" s="59"/>
+      <c r="J172" s="55"/>
     </row>
     <row r="176" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="18"/>
     </row>
     <row r="177" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J177" s="59"/>
+      <c r="J177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J178" s="59"/>
+      <c r="J178" s="55"/>
     </row>
     <row r="182" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="18"/>
     </row>
     <row r="183" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J183" s="59"/>
+      <c r="J183" s="55"/>
     </row>
     <row r="184" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J184" s="59"/>
+      <c r="J184" s="55"/>
     </row>
     <row r="187" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="188" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="18"/>
     </row>
     <row r="189" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J189" s="59"/>
+      <c r="J189" s="55"/>
     </row>
     <row r="190" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="59"/>
+      <c r="J190" s="55"/>
     </row>
     <row r="194" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="18"/>
     </row>
     <row r="195" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J195" s="59"/>
+      <c r="J195" s="55"/>
     </row>
     <row r="196" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J196" s="59"/>
+      <c r="J196" s="55"/>
     </row>
     <row r="199" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="200" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="18"/>
     </row>
     <row r="201" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J201" s="59"/>
+      <c r="J201" s="55"/>
     </row>
     <row r="202" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J202" s="59"/>
+      <c r="J202" s="55"/>
     </row>
     <row r="206" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="18"/>
     </row>
     <row r="207" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J207" s="59"/>
+      <c r="J207" s="55"/>
     </row>
     <row r="208" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J208" s="59"/>
+      <c r="J208" s="55"/>
     </row>
     <row r="211" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="212" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="18"/>
     </row>
     <row r="213" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J213" s="59"/>
+      <c r="J213" s="55"/>
     </row>
     <row r="214" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J214" s="59"/>
+      <c r="J214" s="55"/>
     </row>
     <row r="218" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="18"/>
     </row>
     <row r="219" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J219" s="59"/>
+      <c r="J219" s="55"/>
     </row>
     <row r="220" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J220" s="59"/>
+      <c r="J220" s="55"/>
     </row>
     <row r="223" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="18"/>
     </row>
     <row r="225" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J225" s="59"/>
+      <c r="J225" s="55"/>
     </row>
     <row r="226" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J226" s="59"/>
+      <c r="J226" s="55"/>
     </row>
     <row r="230" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="18"/>
@@ -2357,10 +2372,10 @@
       <c r="B231" s="18"/>
     </row>
     <row r="232" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="70"/>
+      <c r="B232" s="66"/>
     </row>
     <row r="233" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="70"/>
+      <c r="B233" s="66"/>
     </row>
     <row r="234" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="18"/>
@@ -2440,40 +2455,40 @@
     <row r="260" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
     </row>
-    <row r="263" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="71"/>
-      <c r="C263" s="72"/>
-      <c r="D263" s="72"/>
-      <c r="E263" s="73"/>
-      <c r="F263" s="50"/>
-      <c r="H263" s="73"/>
-    </row>
-    <row r="264" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="67"/>
+      <c r="C263" s="68"/>
+      <c r="D263" s="68"/>
+      <c r="E263" s="69"/>
+      <c r="F263" s="46"/>
+      <c r="H263" s="69"/>
+    </row>
+    <row r="264" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="31"/>
       <c r="B264" s="32"/>
       <c r="C264" s="33"/>
     </row>
-    <row r="265" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="31"/>
       <c r="B265" s="32"/>
       <c r="C265" s="33"/>
     </row>
-    <row r="266" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="31"/>
       <c r="B266" s="32"/>
       <c r="C266" s="33"/>
     </row>
-    <row r="267" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="31"/>
       <c r="B267" s="32"/>
       <c r="C267" s="33"/>
     </row>
-    <row r="268" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="31"/>
       <c r="B268" s="32"/>
       <c r="C268" s="33"/>
     </row>
-    <row r="269" spans="1:8" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="41" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="31"/>
       <c r="B269" s="32"/>
       <c r="C269" s="33"/>
@@ -2567,7 +2582,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="C13" s="42"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
@@ -4757,13 +4772,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4785,21 +4800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5016,32 +5016,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5058,4 +5048,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>